--- a/Zarate Amezcua Eladio Jorge 20212.xlsx
+++ b/Zarate Amezcua Eladio Jorge 20212.xlsx
@@ -3995,6 +3995,9 @@
       <c r="J11" t="s">
         <v>372</v>
       </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">

--- a/Zarate Amezcua Eladio Jorge 20212.xlsx
+++ b/Zarate Amezcua Eladio Jorge 20212.xlsx
@@ -5449,7 +5449,7 @@
         <v>627</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11">
